--- a/DATASET/dataset with criteria names.xlsx
+++ b/DATASET/dataset with criteria names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HUAWEI\AMCIS 2023\PrometHeAs\DATASET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F4D9A2-0CEB-44C7-8448-339DDE76FE2D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D242B941-59C8-4D16-B9C8-D35BC576F4E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
